--- a/covasim_webapp/tmp_excels/Population_NN.xlsx
+++ b/covasim_webapp/tmp_excels/Population_NN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozlov_ie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samoilov_ae\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DE8F4B-0DAA-4B36-A39E-F922870363FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4366A2-6CFD-4915-AA5E-66299AEF1D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="7" r:id="rId1"/>
@@ -292,7 +292,7 @@
     <t>10_20</t>
   </si>
   <si>
-    <t>NN</t>
+    <t>N.Novgorod</t>
   </si>
 </sst>
 </file>
@@ -446,12 +446,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -465,6 +459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,11 +562,13 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -823,8 +825,8 @@
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1789,7 +1791,7 @@
       <c r="A39" s="10">
         <v>6</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="30">
         <v>5075</v>
       </c>
       <c r="C39" s="8"/>
@@ -1812,7 +1814,7 @@
       <c r="A40" s="10">
         <v>7</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="30">
         <v>2175</v>
       </c>
       <c r="C40" s="8"/>
@@ -2750,7 +2752,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2772,7 +2774,7 @@
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>7</v>
       </c>
     </row>
@@ -2780,7 +2782,7 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>11</v>
       </c>
     </row>
@@ -2788,7 +2790,7 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>36</v>
       </c>
     </row>
@@ -2796,7 +2798,7 @@
       <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>226</v>
       </c>
     </row>
@@ -2804,7 +2806,7 @@
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>52</v>
       </c>
     </row>
@@ -2812,7 +2814,7 @@
       <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2820,7 +2822,7 @@
       <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2828,7 +2830,7 @@
       <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2836,7 +2838,7 @@
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2844,7 +2846,7 @@
       <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +2854,7 @@
       <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2860,7 +2862,7 @@
       <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2868,7 +2870,7 @@
       <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2876,7 +2878,7 @@
       <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2884,7 +2886,7 @@
       <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2901,7 +2903,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2923,7 +2925,7 @@
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2931,7 +2933,7 @@
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2939,7 +2941,7 @@
       <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>7</v>
       </c>
     </row>
@@ -2947,7 +2949,7 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>8</v>
       </c>
     </row>
@@ -2955,7 +2957,7 @@
       <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>28</v>
       </c>
     </row>
@@ -2963,7 +2965,7 @@
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>37</v>
       </c>
     </row>
@@ -2971,7 +2973,7 @@
       <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>33</v>
       </c>
     </row>
@@ -2979,7 +2981,7 @@
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>20</v>
       </c>
     </row>
@@ -2987,7 +2989,7 @@
       <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>10</v>
       </c>
     </row>
@@ -2995,7 +2997,7 @@
       <c r="A12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>5</v>
       </c>
     </row>
@@ -3003,7 +3005,7 @@
       <c r="A13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>2</v>
       </c>
     </row>
@@ -3011,7 +3013,7 @@
       <c r="A14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3019,7 +3021,7 @@
       <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>2</v>
       </c>
     </row>
@@ -3027,7 +3029,7 @@
       <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3116,7 +3118,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B16"/>
+      <selection activeCell="B16" sqref="B3:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5011,7 +5013,7 @@
       </c>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125" s="27">
+      <c r="A125" s="26">
         <v>24</v>
       </c>
     </row>
@@ -5031,7 +5033,7 @@
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="28">
+      <c r="A131" s="27">
         <v>23.460552270000001</v>
       </c>
     </row>
@@ -5041,7 +5043,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="29">
+      <c r="A134" s="28">
         <v>10</v>
       </c>
     </row>
@@ -5085,7 +5087,7 @@
       <c r="B145" s="16"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="29">
+      <c r="A146" s="28">
         <v>5</v>
       </c>
     </row>
@@ -5970,7 +5972,7 @@
       <c r="A3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>738</v>
       </c>
     </row>
@@ -5978,7 +5980,7 @@
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>402</v>
       </c>
     </row>
@@ -5986,7 +5988,7 @@
       <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>417</v>
       </c>
     </row>
@@ -5994,7 +5996,7 @@
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>716</v>
       </c>
     </row>
@@ -6002,7 +6004,7 @@
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>630</v>
       </c>
     </row>
@@ -6010,7 +6012,7 @@
       <c r="A8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>413</v>
       </c>
     </row>
@@ -6018,7 +6020,7 @@
       <c r="A9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>157</v>
       </c>
     </row>
@@ -6026,7 +6028,7 @@
       <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>74</v>
       </c>
     </row>
@@ -6034,7 +6036,7 @@
       <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <v>32</v>
       </c>
     </row>
